--- a/instrumentation/CMS_Master_Data_Wiring_Dev6.xlsx
+++ b/instrumentation/CMS_Master_Data_Wiring_Dev6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\repos\DAQ\configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\repos\DAQ\instrumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9089BA85-8B78-43D3-A003-EF897B8D8631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E065695E-2710-4E98-9E15-A21D84978D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12720" yWindow="0" windowWidth="12960" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -314,12 +314,6 @@
     <t>LOx Vent</t>
   </si>
   <si>
-    <t>AI 20</t>
-  </si>
-  <si>
-    <t>TC-10</t>
-  </si>
-  <si>
     <t>AI 21</t>
   </si>
   <si>
@@ -372,12 +366,6 @@
   </si>
   <si>
     <t>TC-01</t>
-  </si>
-  <si>
-    <t>testing TC</t>
-  </si>
-  <si>
-    <t>TC-Test</t>
   </si>
   <si>
     <t>PoundsPerSquareInch</t>
@@ -996,11 +984,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E24" sqref="E24"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.29296875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1075,7 +1063,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>46</v>
@@ -1113,7 +1101,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>46</v>
@@ -1151,7 +1139,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>46</v>
@@ -1189,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>46</v>
@@ -1227,7 +1215,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>46</v>
@@ -1265,7 +1253,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>46</v>
@@ -1294,16 +1282,16 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>46</v>
@@ -1324,7 +1312,7 @@
         <v>84</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>94</v>
@@ -1332,22 +1320,19 @@
       <c r="M8" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="2">
-        <v>39.6</v>
-      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" s="13" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>46</v>
@@ -1368,7 +1353,7 @@
         <v>84</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>96</v>
@@ -1379,16 +1364,16 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" s="13" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>46</v>
@@ -1408,8 +1393,8 @@
       <c r="J10" s="16">
         <v>84</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>86</v>
+      <c r="K10" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>98</v>
@@ -1420,16 +1405,16 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>46</v>
@@ -1450,7 +1435,7 @@
         <v>84</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>100</v>
@@ -1461,16 +1446,16 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" s="13" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>46</v>
@@ -1491,7 +1476,7 @@
         <v>84</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>102</v>
@@ -1502,16 +1487,16 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>46</v>
@@ -1531,10 +1516,10 @@
       <c r="J13" s="16">
         <v>84</v>
       </c>
-      <c r="K13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="14" t="s">
+      <c r="K13" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>104</v>
       </c>
       <c r="M13" s="13" t="s">
@@ -1543,16 +1528,16 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>46</v>
@@ -1573,7 +1558,7 @@
         <v>84</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="13" t="s">
         <v>106</v>
@@ -1584,16 +1569,16 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>46</v>
@@ -1614,7 +1599,7 @@
         <v>84</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>108</v>
@@ -1625,16 +1610,16 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>46</v>
@@ -1655,7 +1640,7 @@
         <v>84</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="13" t="s">
         <v>110</v>
@@ -1664,53 +1649,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="2">
-        <v>39.6</v>
-      </c>
-      <c r="G17" s="16">
-        <v>-292</v>
-      </c>
-      <c r="H17" s="16">
-        <v>2</v>
-      </c>
-      <c r="I17" s="16">
-        <v>10</v>
-      </c>
-      <c r="J17" s="16">
-        <v>84</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E290" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E289" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"default,RSE,NRSE,Differential,Pseudodifferential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C290" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C289" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
   </dataValidations>
